--- a/biology/Zoologie/Chœur_de_l'aube/Chœur_de_l'aube.xlsx
+++ b/biology/Zoologie/Chœur_de_l'aube/Chœur_de_l'aube.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C5%93ur_de_l%27aube</t>
+          <t>Chœur_de_l'aube</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le chœur de l'aube a lieu quand des oiseaux, les passeri, commencent à chanter à l'aube. Dans certains lieux comprenant un grand nombre d'oiseaux, ce phénomène peut rendre le sommeil humain difficile à l’aube[1],[2],[3].
+Le chœur de l'aube a lieu quand des oiseaux, les passeri, commencent à chanter à l'aube. Dans certains lieux comprenant un grand nombre d'oiseaux, ce phénomène peut rendre le sommeil humain difficile à l’aube.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C5%93ur_de_l%27aube</t>
+          <t>Chœur_de_l'aube</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,87 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dans les climats tempérés, ce phénomène est le plus notable au printemps quand les oiseaux défendent leur territoire ou tentent d'attirer un partenaire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les climats tempérés, ce phénomène est le plus notable au printemps quand les oiseaux défendent leur territoire ou tentent d'attirer un partenaire.
 Il est courant que différentes espèces chantent à l'aube à différents moments au même endroit.
-Dans une étude menée dans la forêt équatoriale, il a été déterminé que les oiseaux perchés les plus hauts et que les oiseaux aux yeux les plus grands commencent leur chant en premier[4]. Cette corrélation peut provenir du fait que ces deux caractéristiques apportent plus de lumière à l'oiseau[4].
-Nouvelle-Zélande
-Les premiers explorateurs et colons européens ont noté que le chœur de l'aube de la forêt en Nouvelle-Zélande était particulièrement bruyant. Ce n'est plus le cas à cause de la déforestation et l'introduction de prédateurs pour les oiseaux et d'espèces entrant en compétition avec les oiseaux comme les guêpes. Le méliphage carillonneur et le méliphage tui sont deux des oiseaux qui pouvaient participer grandement à ce chœur de l'aube volumineux de par leur chant puissant et mélodieux.
-Royaume-Uni
-Au Royaume-Uni le chœur de l'aube peut être entendu dès quatre heures du matin au début de l'été. Les espèces d'oiseaux les plus souvent entendues sont dans l'ordre de début de chant :
+Dans une étude menée dans la forêt équatoriale, il a été déterminé que les oiseaux perchés les plus hauts et que les oiseaux aux yeux les plus grands commencent leur chant en premier. Cette corrélation peut provenir du fait que ces deux caractéristiques apportent plus de lumière à l'oiseau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chœur_de_l'aube</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C5%93ur_de_l%27aube</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Éthologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers explorateurs et colons européens ont noté que le chœur de l'aube de la forêt en Nouvelle-Zélande était particulièrement bruyant. Ce n'est plus le cas à cause de la déforestation et l'introduction de prédateurs pour les oiseaux et d'espèces entrant en compétition avec les oiseaux comme les guêpes. Le méliphage carillonneur et le méliphage tui sont deux des oiseaux qui pouvaient participer grandement à ce chœur de l'aube volumineux de par leur chant puissant et mélodieux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chœur_de_l'aube</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C5%93ur_de_l%27aube</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éthologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Au Royaume-Uni le chœur de l'aube peut être entendu dès quatre heures du matin au début de l'été. Les espèces d'oiseaux les plus souvent entendues sont dans l'ordre de début de chant :
 Merle noir
 Rouge-gorge familier
 Troglodytes
@@ -535,62 +619,66 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ch%C5%93ur_de_l%27aube</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chœur_de_l'aube</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ch%C5%93ur_de_l%27aube</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>International Dawn Chorus Day</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une journée internationale du « Chœur de l'aube » a lieu le premier dimanche de mai[5]. Pendant cette journée, le public est encouragé à se lever tôt pour écouter les premiers chants d'oiseaux. Le premier évènement de ce genre a eu lieu dans la réserve naturelle de Moseley Bog (en), Birmingham, Angleterre, en 1984, et a été organisé par l'Urban Wildlife Trust (en).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une journée internationale du « Chœur de l'aube » a lieu le premier dimanche de mai. Pendant cette journée, le public est encouragé à se lever tôt pour écouter les premiers chants d'oiseaux. Le premier évènement de ce genre a eu lieu dans la réserve naturelle de Moseley Bog (en), Birmingham, Angleterre, en 1984, et a été organisé par l'Urban Wildlife Trust (en).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ch%C5%93ur_de_l%27aube</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chœur_de_l'aube</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ch%C5%93ur_de_l%27aube</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La dix-neuvième chanson de l’album Geogaddi du groupe écossais de musique électronique Boards of Canada s’appelle Dawn Chorus (« Chœur de l’Aube » en français), une idée directement inspirée de cet événement.
 </t>
